--- a/biology/Zoologie/Coleoidea/Coleoidea.xlsx
+++ b/biology/Zoologie/Coleoidea/Coleoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-classe des Coleoidea, ou coléoïdes en français, fait partie de l'embranchement des mollusques et de la classe des céphalopodes.  Elle est apparue au Dévonien et elle est toujours actuelle. L'ordre des Belemnoidea est un groupe fossile important.
 </t>
@@ -511,14 +523,51 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps des Coléoïdes est essentiellement composé de parties molles. Les fossiles de corps de Coléoïdes sont donc très peu conservés. La plupart du temps, seuls les vestiges de la coquille des mollusques et les becs sont conservés, les espèces sont donc identifiées avec ces seuls fossiles. Les scientifiques tentent de déduire la forme de ces animaux en supposant que les formes sont semblables si les biotopes des formes fossiles et ceux des Coléoïdes actuels sont identiques.
 L'histoire évolutive des Coléoïdes est très mal comprise en raison notamment du manque de fossiles, cependant en 2010 les recherches reposent aussi sur les analyses génétiques comme la phylogénie moléculaire. Plusieurs hypothèses sont discutées mais autant le taxon des Céphalopodes est jugé monophylétique par les scientifiques, autant les ordres qui composent les Coléoïdes sont soupçonnés d'être paraphylétiques. Les seuls dépôts où l'on trouve en abondance des fossiles bien conservés sont ceux d'Allemagne : Solnhofen, Holzmaden tous deux datés de 150 Ma, et celui de Hajoula au Liban daté de 100 Ma. Ces courts aperçus de l'histoire ne permettent pas de se faire une idée précise de l'évolution et les progrès dans la connaissance se feront surement par la génétiques, cependant il semble que les Coléoïdes se sont différenciés de leurs ancêtres mollusques avec la condensation des organes de la partie antéro-postérieure et un allongement de la partie dorso-ventrale. Le pied s'est modifié en un ensemble complexe de tentacules. Les organes des sens sont très développés, y compris les yeux, étonnamment semblables à ceux des vertébrés. La coquille a fortement régressé, devenant une fine structure interne, translucide voire transparente, la plume, qui soutient le manteau du calmar et sert de support de fixation des muscles.
-Les plus anciens fossiles connus en 2010 sont datés du Mississippien, une sous-période du Carbonifère, il y a environ 330 MA. Certains fossiles du Dévonien pourrait être également des Coléoïdes[1], cependant des doutes subsistent[2].
-Les fossiles du Carbonifère montrent déjà une grande diversité. Bien que les Bélemnites soient classiquement classées avec eux pour des raisons morphologiques évidentes, certains fossiles suggèrent que la différenciation entre ce groupe et les autres coléoïdes pourrait être en fait être très ancienne et dès lors ceux-ci ne devrait pas être inclus dans ce groupe[3].
-Classification
-Subclass Coleoidea
+Les plus anciens fossiles connus en 2010 sont datés du Mississippien, une sous-période du Carbonifère, il y a environ 330 MA. Certains fossiles du Dévonien pourrait être également des Coléoïdes, cependant des doutes subsistent.
+Les fossiles du Carbonifère montrent déjà une grande diversité. Bien que les Bélemnites soient classiquement classées avec eux pour des raisons morphologiques évidentes, certains fossiles suggèrent que la différenciation entre ce groupe et les autres coléoïdes pourrait être en fait être très ancienne et dès lors ceux-ci ne devrait pas être inclus dans ce groupe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coleoidea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coleoidea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subclass Coleoidea
 Division des †Belemnoidea : éteinte
 Genre †Jeletzkya
 Ordre des †Hematitida
@@ -537,8 +586,8 @@
 Ordre des Vampyromorphida
 Ordre des Octopoda
 (ordre indéterminé)
-famille des Ostenoteuthidae[4]
-Classification dite classique[5] élaborée au début du siècle par synapomorphie
+famille des Ostenoteuthidae
+Classification dite classique élaborée au début du siècle par synapomorphie
 Les mollusques
  └─o Cephalopoda
    ├─o Les Nautiles
@@ -555,7 +604,7 @@
            └─o
              ├─o Sepioida, les deux ordres de seiches
              └─o les Teuthida, les calmars
-Classification phylogénétique[6]
+Classification phylogénétique
 Les mollusques
  └─o Cephalopoda
    ├─o Certains nautiles séparés dès le Cambrien, Nautiloidea est paraphylétique
@@ -579,31 +628,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Coleoidea</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Coleoidea</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Les taxons des espèces vivantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>super-ordre des Decabrachia Boettger, 1952 (ou Decapodiformes) -- décapodes (à dix membres) comme les calmars et seiches
 ordre des Sepiida Zittel, 1895
@@ -613,7 +664,7 @@
 super-ordre des Octobrachia Fioroni, 1981 (ou Octopodiformes) -- octopodes (à huit membres) comme les poulpes
 ordre des Octopoda Leach, 1818
 ordre des Vampyromorphida Pickford, 1939
-Selon World Register of Marine Species                               (23 décembre 2013)[7] :
+Selon World Register of Marine Species                               (23 décembre 2013) :
 super-ordre des Decapodiformes
 ordre des Myopsida
 ordre des Oegopsida
@@ -625,31 +676,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Coleoidea</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Coleoidea</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coléoïdes ont un corps mou et un squelette interne réduit voire absent.
 Ce squelette est en trois parties :
